--- a/excelKit/src/sheet_templete/templete_cfg.xlsx
+++ b/excelKit/src/sheet_templete/templete_cfg.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="17795" windowHeight="5160"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheetName" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:D9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
-    <t>SheetName</t>
+    <t>前后端</t>
   </si>
   <si>
     <t>主键id</t>
@@ -65,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,15 +81,98 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,129 +186,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +424,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,26 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,26 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,153 +498,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,7 +1029,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/excelKit/src/sheet_templete/templete_cfg.xlsx
+++ b/excelKit/src/sheet_templete/templete_cfg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17795" windowHeight="5160"/>
+    <workbookView windowWidth="16968" windowHeight="5555"/>
   </bookViews>
   <sheets>
     <sheet name="sheetName" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,15 +81,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,62 +169,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,6 +187,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,16 +210,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,29 +219,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +424,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,17 +466,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,11 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,21 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -532,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>

--- a/excelKit/src/sheet_templete/templete_cfg.xlsx
+++ b/excelKit/src/sheet_templete/templete_cfg.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16968" windowHeight="5555"/>
+    <workbookView windowWidth="16968" windowHeight="5555" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="sheetName" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="工作簿名1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作簿名2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作簿名3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
   <oleSize ref="A1:D9"/>
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
-  <si>
-    <t>前后端</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>sheetname1</t>
   </si>
   <si>
     <t>主键id</t>
@@ -43,6 +43,9 @@
     <t>descr</t>
   </si>
   <si>
+    <t>TYPE</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -59,6 +62,12 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>sheetname2</t>
+  </si>
+  <si>
+    <t>sheetname6</t>
   </si>
 </sst>
 </file>
@@ -66,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,68 +90,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,17 +142,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,31 +189,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,37 +242,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,61 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,79 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +433,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,42 +510,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,32 +533,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,145 +541,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,8 +1037,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1066,20 +1075,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1096,12 +1108,12 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1110,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1121,12 +1133,12 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1135,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1146,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1159,14 +1171,121 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1176,14 +1295,121 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
